--- a/266-bis_MAJ_Annexe_NomenclatureCNSA/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/266-bis_MAJ_Annexe_NomenclatureCNSA/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:17:47+00:00</t>
+    <t>2025-01-29T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
